--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -442,6 +442,21 @@
   </si>
   <si>
     <t>Understanding and discussion on low code platform for CRMS</t>
+  </si>
+  <si>
+    <t>Week 12(April 7 - April 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design low fidelity wireframes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Class Diagram </t>
+  </si>
+  <si>
+    <t>Code for website as low code platform for CRMS</t>
+  </si>
+  <si>
+    <t>Week 13(April 15 - April 21)</t>
   </si>
 </sst>
 </file>
@@ -1490,34 +1505,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="ffffffff"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="16"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="16"/>
-          <bgColor indexed="18"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="16"/>
-          <bgColor indexed="19"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="ffffffff"/>
@@ -4678,7 +4666,9 @@
       </c>
     </row>
     <row r="64" ht="13.05" customHeight="1">
-      <c r="A64" s="89"/>
+      <c r="A64" t="s" s="89">
+        <v>135</v>
+      </c>
       <c r="B64" s="90"/>
       <c r="C64" s="91"/>
       <c r="D64" s="91"/>
@@ -4689,40 +4679,96 @@
       <c r="I64" s="64"/>
     </row>
     <row r="65" ht="13.05" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="71"/>
+      <c r="A65" t="s" s="73">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s" s="65">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s" s="65">
+        <v>101</v>
+      </c>
+      <c r="D65" s="66">
+        <v>5</v>
+      </c>
+      <c r="E65" s="66">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s" s="71">
+        <v>52</v>
+      </c>
       <c r="G65" s="72"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="70"/>
+      <c r="H65" s="69">
+        <f>IF(OR(D65="",E65=""),"",D65-E65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="70">
+        <f>IF(OR(H65="",E65=0),"",ABS(H65)/E65*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" ht="13.05" customHeight="1">
-      <c r="A66" s="73"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="71"/>
+      <c r="A66" t="s" s="73">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="65">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s" s="65">
+        <v>78</v>
+      </c>
+      <c r="D66" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="F66" t="s" s="71">
+        <v>52</v>
+      </c>
       <c r="G66" s="72"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="70"/>
+      <c r="H66" s="69">
+        <f>IF(OR(D66="",E66=""),"",D66-E66)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="70">
+        <f>IF(OR(H66="",E66=0),"",ABS(H66)/E66*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" ht="13.05" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="71"/>
+      <c r="A67" t="s" s="73">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s" s="65">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s" s="65">
+        <v>63</v>
+      </c>
+      <c r="D67" s="66">
+        <v>6</v>
+      </c>
+      <c r="E67" s="66">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s" s="71">
+        <v>52</v>
+      </c>
       <c r="G67" s="72"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="70"/>
+      <c r="H67" s="69">
+        <f>IF(OR(D67="",E67=""),"",D67-E67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="70">
+        <f>IF(OR(H67="",E67=0),"",ABS(H67)/E67*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" ht="13.05" customHeight="1">
-      <c r="A68" s="89"/>
+      <c r="A68" t="s" s="89">
+        <v>139</v>
+      </c>
       <c r="B68" s="90"/>
       <c r="C68" s="91"/>
       <c r="D68" s="91"/>
@@ -18197,7 +18243,7 @@
       <c r="I1234" s="121"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F60 F72:F1234">
+  <conditionalFormatting sqref="F5:F1234">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -18208,17 +18254,6 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F71">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
-      <formula>"Delayed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal" stopIfTrue="1">
-      <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal" stopIfTrue="1">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery,Type"</formula1>
@@ -18226,10 +18261,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>"Planned,Ongoing,Delayed,Done,Status"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B34 B40:B63 B72:B1234">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B34 B40:B63 B65:B67 B72:B1234">
       <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F34 F38:F63 F72:F1234">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F34 F38:F63 F66:F67 F72:F1234">
       <formula1>"Planned,Ongoing,Delayed,Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -457,6 +457,15 @@
   </si>
   <si>
     <t>Week 13(April 15 - April 21)</t>
+  </si>
+  <si>
+    <t>Adding implementation for exporting html</t>
+  </si>
+  <si>
+    <t>Modifying CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code for some other features </t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1514,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="ffffffff"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="16"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="16"/>
+          <bgColor indexed="18"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="16"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="ffffffff"/>
@@ -4779,37 +4815,91 @@
       <c r="I68" s="64"/>
     </row>
     <row r="69" ht="13.05" customHeight="1">
-      <c r="A69" s="73"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="71"/>
+      <c r="A69" t="s" s="65">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s" s="65">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s" s="65">
+        <v>55</v>
+      </c>
+      <c r="D69" s="66">
+        <v>4</v>
+      </c>
+      <c r="E69" s="66">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s" s="71">
+        <v>52</v>
+      </c>
       <c r="G69" s="72"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="43"/>
+      <c r="H69" s="69">
+        <f>IF(OR(D69="",E69=""),"",D69-E69)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="70">
+        <f>IF(OR(H69="",E69=0),"",ABS(H69)/E69*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" ht="13.05" customHeight="1">
-      <c r="A70" s="73"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="71"/>
+      <c r="A70" t="s" s="73">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s" s="65">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s" s="65">
+        <v>98</v>
+      </c>
+      <c r="D70" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="F70" t="s" s="71">
+        <v>52</v>
+      </c>
       <c r="G70" s="72"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="43"/>
+      <c r="H70" s="69">
+        <f>IF(OR(D70="",E70=""),"",D70-E70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="70">
+        <f>IF(OR(H70="",E70=0),"",ABS(H70)/E70*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" ht="13.05" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="71"/>
+      <c r="A71" t="s" s="65">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s" s="65">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s" s="65">
+        <v>63</v>
+      </c>
+      <c r="D71" s="66">
+        <v>3</v>
+      </c>
+      <c r="E71" s="66">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s" s="71">
+        <v>52</v>
+      </c>
       <c r="G71" s="72"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="43"/>
+      <c r="H71" s="69">
+        <f>IF(OR(D71="",E71=""),"",D71-E71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="70">
+        <f>IF(OR(H71="",E71=0),"",ABS(H71)/E71*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" ht="13.05" customHeight="1">
       <c r="A72" s="114"/>
@@ -18243,7 +18333,7 @@
       <c r="I1234" s="121"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F1234">
+  <conditionalFormatting sqref="F5:F68 F72:F1234">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"Delayed"</formula>
     </cfRule>
@@ -18254,6 +18344,17 @@
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F69:F71">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
+      <formula>"Delayed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal" stopIfTrue="1">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal" stopIfTrue="1">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery,Type"</formula1>
@@ -18261,10 +18362,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>"Planned,Ongoing,Delayed,Done,Status"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B34 B40:B63 B65:B67 B72:B1234">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B34 B40:B63 B65:B67 B69:B1234">
       <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F34 F38:F63 F66:F67 F72:F1234">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F34 F38:F63 F66:F67 F70:F1234">
       <formula1>"Planned,Ongoing,Delayed,Done"</formula1>
     </dataValidation>
   </dataValidations>
